--- a/medicine/Handicap/Wendy_Lawson/Wendy_Lawson.xlsx
+++ b/medicine/Handicap/Wendy_Lawson/Wendy_Lawson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wenn Lawson, né en 1952,  est un auteur et conférencier australien autiste[1],[2] qui, par ses publications et ses discours, travaille à faire comprendre l'autisme[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wenn Lawson, né en 1952,  est un auteur et conférencier australien autiste, qui, par ses publications et ses discours, travaille à faire comprendre l'autisme.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Considéré comme handicapé mental et « pratiquement incapable de faire ce qu'on lui demandait à l'école » il a été plus tard diagnostiqué à tort schizophrène, une étiquette qu'il a conservée pendant 25 ans. Son sentiment d'être une personne à part entière était alors inexistant. 
 En 2005, il est parent de 3 enfants, deux fois diplômé de l'université, travailleur social, éducateur pour adultes et il gère sa propre entreprise à Victoria en Australie. Il partage sa compréhension de l'autisme avec les autres pour, selon lui, « aider à construire un pont entre mon monde et le leur ».
@@ -543,7 +557,9 @@
           <t>Idées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Principales idées soutenues par Wenn Lawson sur l'autisme[réf. souhaitée] :
 il ne s'agit pas d'une déconnexion au monde, mais d'une hyperconnexion de la personne autiste à une chose, au point d'oublier tout le reste ;
